--- a/user-data/oda-percent-gni/oda-percent-gni.xlsx
+++ b/user-data/oda-percent-gni/oda-percent-gni.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -356,9 +356,6 @@
   </si>
   <si>
     <t>Source: Development Initiatives based on OECD-DAC data</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -743,32 +740,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
@@ -784,11 +781,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/oda-percent-gni/oda-percent-gni.xlsx
+++ b/user-data/oda-percent-gni/oda-percent-gni.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -364,7 +364,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/oda-percent-gni/oda-percent-gni.xlsx
+++ b/user-data/oda-percent-gni/oda-percent-gni.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>id</t>
   </si>
@@ -370,7 +370,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -783,6 +786,11 @@
         <v>120</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/oda-percent-gni/oda-percent-gni.xlsx
+++ b/user-data/oda-percent-gni/oda-percent-gni.xlsx
@@ -493,7 +493,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: c(13, 66)</t>
+    <t xml:space="preserve">Source: c(12, 67)</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: c(1, 9)</t>

--- a/user-data/oda-percent-gni/oda-percent-gni.xlsx
+++ b/user-data/oda-percent-gni/oda-percent-gni.xlsx
@@ -493,7 +493,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: c(12, 67)</t>
+    <t xml:space="preserve">Source: c(12, 69)</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: c(1, 9)</t>

--- a/user-data/oda-percent-gni/oda-percent-gni.xlsx
+++ b/user-data/oda-percent-gni/oda-percent-gni.xlsx
@@ -493,7 +493,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: c(13, 66)</t>
+    <t xml:space="preserve">Source: c(12, 69)</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: c(1, 9)</t>

--- a/user-data/oda-percent-gni/oda-percent-gni.xlsx
+++ b/user-data/oda-percent-gni/oda-percent-gni.xlsx
@@ -493,7 +493,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: c(12, 69)</t>
+    <t xml:space="preserve">Source: c(12, 68)</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: c(1, 9)</t>
